--- a/EdManagementSystem.DataAccess/Files/Attendance/5053a39f-2658-4854-a550-25171f1bcfe7.xlsx
+++ b/EdManagementSystem.DataAccess/Files/Attendance/5053a39f-2658-4854-a550-25171f1bcfe7.xlsx
@@ -427,7 +427,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="str">
         <v>Козлов Дмитрий Александрович</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="str">
         <v>Новикова Екатерина Сергеевна</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="str">
         <v>Володин Евгений Витальевич</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="str">
         <v>Сидорова Анна Владимировна</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="str">
         <v>Павлов Денис Васильевич</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="str">
         <v>Кузнецов Алексей Игоревич</v>
